--- a/generated-files/GeneralsTemplate.xlsx
+++ b/generated-files/GeneralsTemplate.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28221"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02FC3B6-F7C0-4B8B-B019-8AB29471BD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="42045" yWindow="-16770" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GeneralsTemplate" r:id="rId3" sheetId="1"/>
+    <sheet name="GeneralsTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -186,19 +194,235 @@
   </si>
   <si>
     <t>biography</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>talent-001</t>
+  </si>
+  <si>
+    <t>awakening-001</t>
+  </si>
+  <si>
+    <t>['skill-001', 'skill-002']</t>
+  </si>
+  <si>
+    <t>appearance-001</t>
+  </si>
+  <si>
+    <t>蜀汉名将，忠义无双。</t>
+  </si>
+  <si>
+    <t>关羽是三国时期蜀汉名将，以忠义和武勇著称。</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>talent-002</t>
+  </si>
+  <si>
+    <t>awakening-002</t>
+  </si>
+  <si>
+    <t>['skill-003', 'skill-004']</t>
+  </si>
+  <si>
+    <t>appearance-002</t>
+  </si>
+  <si>
+    <t>猛将张飞，勇猛过人。</t>
+  </si>
+  <si>
+    <t>张飞是三国时期蜀汉猛将，以勇猛和直率闻名。</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>talent-003</t>
+  </si>
+  <si>
+    <t>awakening-003</t>
+  </si>
+  <si>
+    <t>['skill-005', 'skill-006']</t>
+  </si>
+  <si>
+    <t>appearance-003</t>
+  </si>
+  <si>
+    <t>蜀汉皇帝，仁德为怀。</t>
+  </si>
+  <si>
+    <t>刘备是三国时期蜀汉开国皇帝，以仁德和广纳贤才著称。</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>talent-004</t>
+  </si>
+  <si>
+    <t>awakening-004</t>
+  </si>
+  <si>
+    <t>['skill-007', 'skill-008']</t>
+  </si>
+  <si>
+    <t>appearance-004</t>
+  </si>
+  <si>
+    <t>魏王曹操，治世之能臣。</t>
+  </si>
+  <si>
+    <t>曹操是三国时期魏国的奠基者，以军事和政治才能闻名。</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>talent-005</t>
+  </si>
+  <si>
+    <t>awakening-005</t>
+  </si>
+  <si>
+    <t>['skill-009', 'skill-010']</t>
+  </si>
+  <si>
+    <t>appearance-005</t>
+  </si>
+  <si>
+    <t>吴国大帝，继承父兄之业。</t>
+  </si>
+  <si>
+    <t>孙权是三国时期吴国的建立者，继承了父兄的事业，善于治国。</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>talent-006</t>
+  </si>
+  <si>
+    <t>awakening-006</t>
+  </si>
+  <si>
+    <t>['skill-011', 'skill-012']</t>
+  </si>
+  <si>
+    <t>appearance-006</t>
+  </si>
+  <si>
+    <t>吴国都督，风度翩翩。</t>
+  </si>
+  <si>
+    <t>周瑜是三国时期吴国的都督，擅长用兵，气度不凡。</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>talent-007</t>
+  </si>
+  <si>
+    <t>awakening-007</t>
+  </si>
+  <si>
+    <t>['skill-013', 'skill-014']</t>
+  </si>
+  <si>
+    <t>appearance-007</t>
+  </si>
+  <si>
+    <t>老将黄忠，勇猛如昔。</t>
+  </si>
+  <si>
+    <t>黄忠是蜀汉老将，虽年迈但仍勇猛无比。</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>talent-008</t>
+  </si>
+  <si>
+    <t>awakening-008</t>
+  </si>
+  <si>
+    <t>['skill-015', 'skill-016']</t>
+  </si>
+  <si>
+    <t>appearance-008</t>
+  </si>
+  <si>
+    <t>蜀汉名将，百战百胜。</t>
+  </si>
+  <si>
+    <t>赵云是三国时期蜀汉名将，以勇敢和忠诚著称。</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>talent-009</t>
+  </si>
+  <si>
+    <t>awakening-009</t>
+  </si>
+  <si>
+    <t>['skill-017', 'skill-018']</t>
+  </si>
+  <si>
+    <t>appearance-009</t>
+  </si>
+  <si>
+    <t>天下无双的猛将。</t>
+  </si>
+  <si>
+    <t>吕布是三国时期著名的猛将，以武力称雄。</t>
+  </si>
+  <si>
+    <t>司马懿</t>
+  </si>
+  <si>
+    <t>talent-010</t>
+  </si>
+  <si>
+    <t>awakening-010</t>
+  </si>
+  <si>
+    <t>['skill-019', 'skill-020']</t>
+  </si>
+  <si>
+    <t>appearance-010</t>
+  </si>
+  <si>
+    <t>魏国重臣，深谋远虑。</t>
+  </si>
+  <si>
+    <t>司马懿是三国时期魏国重臣，擅长权谋和战略。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -207,7 +431,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -220,201 +444,1316 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Z12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>44</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s" s="0">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s" s="0">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s" s="0">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s" s="0">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s" s="0">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s" s="0">
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s" s="0">
+      <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s" s="0">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" t="s" s="0">
+      <c r="Y2" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" t="s" s="0">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" t="s" s="0">
+      <c r="AB2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s" s="0">
+      <c r="AC2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>95</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="I3">
+        <v>85</v>
+      </c>
+      <c r="J3">
+        <v>220</v>
+      </c>
+      <c r="K3">
+        <v>180</v>
+      </c>
+      <c r="L3">
+        <v>5000</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>500</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>80</v>
+      </c>
+      <c r="J4">
+        <v>240</v>
+      </c>
+      <c r="K4">
+        <v>170</v>
+      </c>
+      <c r="L4">
+        <v>4800</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>180</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>450</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>180</v>
+      </c>
+      <c r="K5">
+        <v>160</v>
+      </c>
+      <c r="L5">
+        <v>5200</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>220</v>
+      </c>
+      <c r="P5">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <v>550</v>
+      </c>
+      <c r="S5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>85</v>
+      </c>
+      <c r="G6">
+        <v>98</v>
+      </c>
+      <c r="H6">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <v>95</v>
+      </c>
+      <c r="J6">
+        <v>210</v>
+      </c>
+      <c r="K6">
+        <v>190</v>
+      </c>
+      <c r="L6">
+        <v>5100</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>210</v>
+      </c>
+      <c r="P6">
+        <v>28</v>
+      </c>
+      <c r="Q6">
+        <v>17</v>
+      </c>
+      <c r="R6">
+        <v>490</v>
+      </c>
+      <c r="S6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <v>85</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>170</v>
+      </c>
+      <c r="L7">
+        <v>4900</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7">
+        <v>230</v>
+      </c>
+      <c r="P7">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>16</v>
+      </c>
+      <c r="R7">
+        <v>470</v>
+      </c>
+      <c r="S7" t="s">
+        <v>87</v>
+      </c>
+      <c r="T7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>95</v>
+      </c>
+      <c r="H8">
+        <v>85</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="J8">
+        <v>190</v>
+      </c>
+      <c r="K8">
+        <v>160</v>
+      </c>
+      <c r="L8">
+        <v>4500</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>190</v>
+      </c>
+      <c r="P8">
+        <v>22</v>
+      </c>
+      <c r="Q8">
+        <v>14</v>
+      </c>
+      <c r="R8">
+        <v>430</v>
+      </c>
+      <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" t="s">
+        <v>96</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>85</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>75</v>
+      </c>
+      <c r="J9">
+        <v>210</v>
+      </c>
+      <c r="K9">
+        <v>150</v>
+      </c>
+      <c r="L9">
+        <v>4600</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>170</v>
+      </c>
+      <c r="P9">
+        <v>29</v>
+      </c>
+      <c r="Q9">
+        <v>19</v>
+      </c>
+      <c r="R9">
+        <v>410</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" t="s">
+        <v>102</v>
+      </c>
+      <c r="U9" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>85</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>230</v>
+      </c>
+      <c r="K10">
+        <v>180</v>
+      </c>
+      <c r="L10">
+        <v>5300</v>
+      </c>
+      <c r="M10">
+        <v>18</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>240</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>21</v>
+      </c>
+      <c r="R10">
+        <v>560</v>
+      </c>
+      <c r="S10" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>70</v>
+      </c>
+      <c r="J11">
+        <v>260</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>5000</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>15</v>
+      </c>
+      <c r="O11">
+        <v>220</v>
+      </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>22</v>
+      </c>
+      <c r="R11">
+        <v>520</v>
+      </c>
+      <c r="S11" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" t="s">
+        <v>116</v>
+      </c>
+      <c r="U11" t="s">
+        <v>117</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>98</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>85</v>
+      </c>
+      <c r="J12">
+        <v>200</v>
+      </c>
+      <c r="K12">
+        <v>170</v>
+      </c>
+      <c r="L12">
+        <v>5100</v>
+      </c>
+      <c r="M12">
+        <v>14</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12">
+        <v>220</v>
+      </c>
+      <c r="P12">
+        <v>26</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>490</v>
+      </c>
+      <c r="S12" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U12" t="s">
+        <v>124</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>